--- a/trait_glossary.xlsx
+++ b/trait_glossary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOXWW\Documents\github_edwardsmolina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/juanpablo_edwardsmolina_bayer_com/Documents/0 juanchi_paula/query_corn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BAB6AF-60C4-4135-8D65-F6A7FD970E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F8BAB6AF-60C4-4135-8D65-F6A7FD970E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD665D32-D68B-4019-A1A5-9036DB2FA271}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" firstSheet="3" activeTab="7" xr2:uid="{FFF878E4-EFF2-452E-8C20-EE1D3E5474CA}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="640">
   <si>
     <t>Pais</t>
   </si>
@@ -2322,14 +2322,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2367,6 +2367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5831,7 +5835,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>213</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -5845,7 +5849,7 @@
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="7" t="s">
         <v>216</v>
       </c>
@@ -5855,7 +5859,7 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
         <v>217</v>
       </c>
@@ -5865,7 +5869,7 @@
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
         <v>218</v>
       </c>
@@ -5883,7 +5887,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>219</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -5897,7 +5901,7 @@
       <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8" t="s">
         <v>222</v>
       </c>
@@ -5907,7 +5911,7 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8" t="s">
         <v>223</v>
       </c>
@@ -5917,7 +5921,7 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8" t="s">
         <v>224</v>
       </c>
@@ -5927,7 +5931,7 @@
       <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
         <v>225</v>
       </c>
@@ -5945,7 +5949,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5959,7 +5963,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>229</v>
       </c>
@@ -5969,7 +5973,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="8" t="s">
         <v>230</v>
       </c>
@@ -5979,7 +5983,7 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="8" t="s">
         <v>231</v>
       </c>
@@ -5989,7 +5993,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="8" t="s">
         <v>232</v>
       </c>
@@ -6006,50 +6010,50 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>233</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="24"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>236</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="24"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -6060,22 +6064,22 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="24" t="s">
         <v>238</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>243</v>
       </c>
       <c r="G30" t="s">
@@ -6083,52 +6087,52 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
@@ -6138,13 +6142,13 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>249</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>251</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -6153,40 +6157,40 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
@@ -6198,13 +6202,13 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="24" t="s">
         <v>258</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>259</v>
       </c>
       <c r="D43" s="5"/>
@@ -6214,38 +6218,38 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
@@ -6257,50 +6261,50 @@
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>265</v>
       </c>
       <c r="B49" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
+      <c r="A50" s="24"/>
       <c r="B50" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="24"/>
       <c r="B51" t="s">
         <v>267</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="D51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="24"/>
       <c r="B52" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="24"/>
       <c r="B53" t="s">
         <v>268</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="F53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
@@ -6310,51 +6314,51 @@
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="24" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>270</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="24"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="24"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
@@ -6365,62 +6369,62 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="24" t="s">
         <v>273</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>274</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="24"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="24"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C64" s="24"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
@@ -6430,62 +6434,62 @@
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="24" t="s">
         <v>278</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>279</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="24"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
@@ -6504,12 +6508,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:F6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:F11"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C13:F17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="F25:F28"/>
@@ -6521,22 +6535,12 @@
     <mergeCell ref="E30:E35"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:F6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:F11"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C13:F17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="A43:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9110,7 +9114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF5ED8-131E-4BD4-895E-D8C1122F1C7D}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -9235,6 +9239,9 @@
       </c>
       <c r="E6" t="s">
         <v>634</v>
+      </c>
+      <c r="G6" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13713,6 +13720,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a4d292e-883c-434b-96e3-060cfff16c86" xsi:nil="true"/>
@@ -13733,21 +13749,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7bc43322-b630-4bac-8b27-31def233d1d0" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFF8E5F206A90240BDD3BF359620897E" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d182e364ba0a5c24718c9bdf6cf732e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a4d292e-883c-434b-96e3-060cfff16c86" xmlns:ns3="bf6e6fe3-6e37-4901-9d99-8adff11994d4" xmlns:ns4="d61ed934-dfba-427f-b20c-43d0fce91c27" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de9ac0dec25eeec8595a74b29303c966" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14036,7 +14038,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7bc43322-b630-4bac-8b27-31def233d1d0" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0230F81C-7FC2-40A3-9A73-2BA0D954AEF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934CA139-F6AB-492D-AFEF-53AD0D2EF16D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14050,23 +14065,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0230F81C-7FC2-40A3-9A73-2BA0D954AEF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54842AC8-31EA-497A-AA8E-D57E0486404C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A2505B-7A28-4E8C-A46E-F4BAEF20B2EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14085,4 +14084,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54842AC8-31EA-497A-AA8E-D57E0486404C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>